--- a/biology/Zoologie/Anolis_olssoni/Anolis_olssoni.xlsx
+++ b/biology/Zoologie/Anolis_olssoni/Anolis_olssoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis olssoni est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis olssoni est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 décembre 2013) :
 Anolis olssoni alienus Schwartz, 1981
 Anolis olssoni dominigensis Schwartz, 1981
 Anolis olssoni extentus Schwartz, 1981
@@ -580,9 +596,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Axel Olsson[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Axel Olsson.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt, 1919 : Descriptions of new Amphibians and Reptiles from Santo Domingo and Navassa. New York Bulletin of the American Museum, vol. 41, p. 519-525 (texte intégral).
 Schwartz, 1981 : Variation in Hispaniolan Anolis olssoni Schmidt (Reptilia: Sauria: Iguanidae). Milwaukee Public Museum Contributions in Biology and Geology, no 47, p. 1-21.</t>
